--- a/Code/Results/Cases/Case_9_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002433740474336</v>
+        <v>1.002375070939076</v>
       </c>
       <c r="D2">
-        <v>1.023402968094324</v>
+        <v>1.022916986260905</v>
       </c>
       <c r="E2">
-        <v>1.017315925336338</v>
+        <v>1.017269904750121</v>
       </c>
       <c r="F2">
-        <v>1.025627310401702</v>
+        <v>1.025589859595671</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048394079504339</v>
+        <v>1.048147357533642</v>
       </c>
       <c r="J2">
-        <v>1.024541901655084</v>
+        <v>1.024484975365329</v>
       </c>
       <c r="K2">
-        <v>1.034545613265593</v>
+        <v>1.03406602299062</v>
       </c>
       <c r="L2">
-        <v>1.028539179774744</v>
+        <v>1.028493773241937</v>
       </c>
       <c r="M2">
-        <v>1.036740798220829</v>
+        <v>1.036703837019824</v>
       </c>
       <c r="N2">
-        <v>1.012130942361237</v>
+        <v>1.01372057153241</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037650262061988</v>
+        <v>1.037621009632716</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035496980757264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035166676205426</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021200484112125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006101092075087</v>
+        <v>1.005905268979308</v>
       </c>
       <c r="D3">
-        <v>1.025908752869249</v>
+        <v>1.025231437359913</v>
       </c>
       <c r="E3">
-        <v>1.020199961802474</v>
+        <v>1.020042990357344</v>
       </c>
       <c r="F3">
-        <v>1.028492927291249</v>
+        <v>1.028366174075261</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049172028502945</v>
+        <v>1.048827810637384</v>
       </c>
       <c r="J3">
-        <v>1.026426805769607</v>
+        <v>1.026236234772575</v>
       </c>
       <c r="K3">
-        <v>1.036220520696503</v>
+        <v>1.035551343369872</v>
       </c>
       <c r="L3">
-        <v>1.030580743089986</v>
+        <v>1.030425682829835</v>
       </c>
       <c r="M3">
-        <v>1.038773767451255</v>
+        <v>1.038648526735927</v>
       </c>
       <c r="N3">
-        <v>1.012761633003807</v>
+        <v>1.014186668787607</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039259225484583</v>
+        <v>1.039160105677691</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036678620282047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036213982079413</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021492393709789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00843125061348</v>
+        <v>1.008149261563436</v>
       </c>
       <c r="D4">
-        <v>1.027500675525982</v>
+        <v>1.026702602124444</v>
       </c>
       <c r="E4">
-        <v>1.022038657834499</v>
+        <v>1.021811898693124</v>
       </c>
       <c r="F4">
-        <v>1.030322242720748</v>
+        <v>1.030139364111538</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049651345200098</v>
+        <v>1.049245477860242</v>
       </c>
       <c r="J4">
-        <v>1.027621715701891</v>
+        <v>1.027346780876006</v>
       </c>
       <c r="K4">
-        <v>1.037278145709785</v>
+        <v>1.036489087806639</v>
       </c>
       <c r="L4">
-        <v>1.031878177527087</v>
+        <v>1.031654012107367</v>
       </c>
       <c r="M4">
-        <v>1.040067976732567</v>
+        <v>1.039887148601345</v>
       </c>
       <c r="N4">
-        <v>1.013161512194282</v>
+        <v>1.014482319264435</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040283506393541</v>
+        <v>1.040140392994632</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037427356716118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036878033342176</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021674014196919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009402962478709</v>
+        <v>1.009085305337694</v>
       </c>
       <c r="D5">
-        <v>1.028166210501004</v>
+        <v>1.027318076518792</v>
       </c>
       <c r="E5">
-        <v>1.022807036723112</v>
+        <v>1.022551367185676</v>
       </c>
       <c r="F5">
-        <v>1.031086895697079</v>
+        <v>1.030880777877741</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049848780867087</v>
+        <v>1.04941732876489</v>
       </c>
       <c r="J5">
-        <v>1.028120295992907</v>
+        <v>1.027810349215671</v>
       </c>
       <c r="K5">
-        <v>1.03771979018017</v>
+        <v>1.036880984135311</v>
       </c>
       <c r="L5">
-        <v>1.032419877365645</v>
+        <v>1.032167054082411</v>
       </c>
       <c r="M5">
-        <v>1.04060849726984</v>
+        <v>1.040404628905677</v>
       </c>
       <c r="N5">
-        <v>1.013328714156741</v>
+        <v>1.014606006540405</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040711292159501</v>
+        <v>1.040549944047474</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037746831064732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037163042351613</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021749581514782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009568069679259</v>
+        <v>1.009244416027305</v>
       </c>
       <c r="D6">
-        <v>1.02828143916427</v>
+        <v>1.027424942650882</v>
       </c>
       <c r="E6">
-        <v>1.022937859330758</v>
+        <v>1.022677322538005</v>
       </c>
       <c r="F6">
-        <v>1.031216666035095</v>
+        <v>1.031006637908848</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049883574633149</v>
+        <v>1.049447846963802</v>
       </c>
       <c r="J6">
-        <v>1.028206142044265</v>
+        <v>1.02789030414776</v>
       </c>
       <c r="K6">
-        <v>1.037797428120513</v>
+        <v>1.036950308710773</v>
       </c>
       <c r="L6">
-        <v>1.032512666413227</v>
+        <v>1.032255016737283</v>
       </c>
       <c r="M6">
-        <v>1.040700664494389</v>
+        <v>1.040492918002033</v>
       </c>
       <c r="N6">
-        <v>1.013357914674136</v>
+        <v>1.014627653896314</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040784236313037</v>
+        <v>1.040619818939401</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037810498632072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037221700850019</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021763297335172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008451009216869</v>
+        <v>1.008175570012735</v>
       </c>
       <c r="D7">
-        <v>1.027519918591355</v>
+        <v>1.026726118599941</v>
       </c>
       <c r="E7">
-        <v>1.022054763594169</v>
+        <v>1.021833466028918</v>
       </c>
       <c r="F7">
-        <v>1.030337062837234</v>
+        <v>1.030158535861516</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049659255674904</v>
+        <v>1.049255559900395</v>
       </c>
       <c r="J7">
-        <v>1.027634967700443</v>
+        <v>1.027366415928519</v>
       </c>
       <c r="K7">
-        <v>1.037294277710601</v>
+        <v>1.036509441490504</v>
       </c>
       <c r="L7">
-        <v>1.03189118449323</v>
+        <v>1.031672417217961</v>
       </c>
       <c r="M7">
-        <v>1.040079747392769</v>
+        <v>1.039903221354827</v>
       </c>
       <c r="N7">
-        <v>1.013167073161188</v>
+        <v>1.014514311603507</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04029282208463</v>
+        <v>1.040153113507603</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037458938006598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036914599524024</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021679415067895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003690313627592</v>
+        <v>1.003606515229065</v>
       </c>
       <c r="D8">
-        <v>1.024268378803846</v>
+        <v>1.02373226414089</v>
       </c>
       <c r="E8">
-        <v>1.01830344384707</v>
+        <v>1.018237673550271</v>
       </c>
       <c r="F8">
-        <v>1.026606565497778</v>
+        <v>1.026553058143181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048668297520142</v>
+        <v>1.048396028376021</v>
       </c>
       <c r="J8">
-        <v>1.025192006631963</v>
+        <v>1.025110614908277</v>
       </c>
       <c r="K8">
-        <v>1.035129355109271</v>
+        <v>1.034600083215947</v>
       </c>
       <c r="L8">
-        <v>1.029241062241391</v>
+        <v>1.029176143275115</v>
       </c>
       <c r="M8">
-        <v>1.037437802378416</v>
+        <v>1.037384973693395</v>
       </c>
       <c r="N8">
-        <v>1.012349909993999</v>
+        <v>1.013966934439598</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03820189609909</v>
+        <v>1.038160085601871</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035932732911132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035569565784326</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02130849344489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9949489932162899</v>
+        <v>0.9952013210211403</v>
       </c>
       <c r="D9">
-        <v>1.018289970429551</v>
+        <v>1.018216647332556</v>
       </c>
       <c r="E9">
-        <v>1.011465657260527</v>
+        <v>1.011671324118545</v>
       </c>
       <c r="F9">
-        <v>1.019827324919967</v>
+        <v>1.019992559398989</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046726617888357</v>
+        <v>1.046689468279377</v>
       </c>
       <c r="J9">
-        <v>1.020681385103703</v>
+        <v>1.020924678492381</v>
       </c>
       <c r="K9">
-        <v>1.031093115085793</v>
+        <v>1.031020927740727</v>
       </c>
       <c r="L9">
-        <v>1.02437541135408</v>
+        <v>1.024577838383002</v>
       </c>
       <c r="M9">
-        <v>1.032606704455193</v>
+        <v>1.03276939010854</v>
       </c>
       <c r="N9">
-        <v>1.010839769158568</v>
+        <v>1.0128618934284</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034378383492753</v>
+        <v>1.034507139373679</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033075628065811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033035380478183</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02058907156303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9889360107802384</v>
+        <v>0.9894566372780703</v>
       </c>
       <c r="D10">
-        <v>1.014184957584596</v>
+        <v>1.014455956979946</v>
       </c>
       <c r="E10">
-        <v>1.006839845283931</v>
+        <v>1.007262146076524</v>
       </c>
       <c r="F10">
-        <v>1.015306524378144</v>
+        <v>1.015646414499505</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045325608896444</v>
+        <v>1.045462702976637</v>
       </c>
       <c r="J10">
-        <v>1.017595580600649</v>
+        <v>1.018094904730628</v>
       </c>
       <c r="K10">
-        <v>1.028302735859335</v>
+        <v>1.028569019504372</v>
       </c>
       <c r="L10">
-        <v>1.021086692697114</v>
+        <v>1.021501506609453</v>
       </c>
       <c r="M10">
-        <v>1.029404807057743</v>
+        <v>1.029738800052673</v>
       </c>
       <c r="N10">
-        <v>1.009811911268016</v>
+        <v>1.012229697532155</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031896122576096</v>
+        <v>1.032160442053773</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031119535318298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031320294737677</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020087404107224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9867833265449936</v>
+        <v>0.9874439306920977</v>
       </c>
       <c r="D11">
-        <v>1.012740053453193</v>
+        <v>1.013163214899447</v>
       </c>
       <c r="E11">
-        <v>1.00552337153755</v>
+        <v>1.006057725895228</v>
       </c>
       <c r="F11">
-        <v>1.014447420521532</v>
+        <v>1.014877397537125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044876262844853</v>
+        <v>1.045090197437878</v>
       </c>
       <c r="J11">
-        <v>1.016716461834388</v>
+        <v>1.01734854926464</v>
       </c>
       <c r="K11">
-        <v>1.027425644957638</v>
+        <v>1.027841089590538</v>
       </c>
       <c r="L11">
-        <v>1.020341871496576</v>
+        <v>1.020866299485318</v>
       </c>
       <c r="M11">
-        <v>1.029101927592387</v>
+        <v>1.029524097864722</v>
       </c>
       <c r="N11">
-        <v>1.009557602480875</v>
+        <v>1.012288232572825</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032095871446771</v>
+        <v>1.032429803226169</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030532424413815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030841863524202</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019959988801085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.986162537474635</v>
+        <v>0.9868692588547316</v>
       </c>
       <c r="D12">
-        <v>1.01232877864242</v>
+        <v>1.012798980997066</v>
       </c>
       <c r="E12">
-        <v>1.005293009721435</v>
+        <v>1.005863201490503</v>
       </c>
       <c r="F12">
-        <v>1.014534369656792</v>
+        <v>1.014993201117433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044771070761234</v>
+        <v>1.045008733265986</v>
       </c>
       <c r="J12">
-        <v>1.016564292540918</v>
+        <v>1.017239922286864</v>
       </c>
       <c r="K12">
-        <v>1.027223529999101</v>
+        <v>1.027685013170038</v>
       </c>
       <c r="L12">
-        <v>1.020319501756308</v>
+        <v>1.020878927343336</v>
       </c>
       <c r="M12">
-        <v>1.029388312877995</v>
+        <v>1.029838684018629</v>
       </c>
       <c r="N12">
-        <v>1.00953628959162</v>
+        <v>1.012381793171615</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032650876576291</v>
+        <v>1.033006992799818</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030389520984323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030731513622782</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019942104173242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.986687995170344</v>
+        <v>0.9873616244435597</v>
       </c>
       <c r="D13">
-        <v>1.012697592071604</v>
+        <v>1.013130107906416</v>
       </c>
       <c r="E13">
-        <v>1.00589185842861</v>
+        <v>1.006433711430455</v>
       </c>
       <c r="F13">
-        <v>1.015373611456392</v>
+        <v>1.015809806120453</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044935544924854</v>
+        <v>1.045154172171562</v>
       </c>
       <c r="J13">
-        <v>1.016971901471441</v>
+        <v>1.01761604728119</v>
       </c>
       <c r="K13">
-        <v>1.027542272334828</v>
+        <v>1.02796680188074</v>
       </c>
       <c r="L13">
-        <v>1.020863385875495</v>
+        <v>1.021395057582345</v>
       </c>
       <c r="M13">
-        <v>1.030169021939554</v>
+        <v>1.030597217608539</v>
       </c>
       <c r="N13">
-        <v>1.009697922274103</v>
+        <v>1.012476685843073</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033546317393147</v>
+        <v>1.033884813154748</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030612377153959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030927995564669</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020011320480837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9875732288437171</v>
+        <v>0.9881887092064111</v>
       </c>
       <c r="D14">
-        <v>1.013308988227734</v>
+        <v>1.013677469304954</v>
       </c>
       <c r="E14">
-        <v>1.006683161836559</v>
+        <v>1.00717707686815</v>
       </c>
       <c r="F14">
-        <v>1.016297993651461</v>
+        <v>1.016695773937526</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045172417741028</v>
+        <v>1.045358709208579</v>
       </c>
       <c r="J14">
-        <v>1.01750867980229</v>
+        <v>1.018097612188367</v>
       </c>
       <c r="K14">
-        <v>1.028000852155962</v>
+        <v>1.028362614145108</v>
       </c>
       <c r="L14">
-        <v>1.021496939543076</v>
+        <v>1.021981694495564</v>
       </c>
       <c r="M14">
-        <v>1.030935537162517</v>
+        <v>1.031326119738018</v>
       </c>
       <c r="N14">
-        <v>1.009893279797817</v>
+        <v>1.012544618432183</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034326307251777</v>
+        <v>1.034635027285326</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030938044809603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031209416317112</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020099333786542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9880428448402051</v>
+        <v>0.9886274777730978</v>
       </c>
       <c r="D15">
-        <v>1.013632666348143</v>
+        <v>1.013967390643494</v>
       </c>
       <c r="E15">
-        <v>1.007065804911611</v>
+        <v>1.007534612927394</v>
       </c>
       <c r="F15">
-        <v>1.016704396300273</v>
+        <v>1.017082024730357</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045291351038316</v>
+        <v>1.045460594008392</v>
       </c>
       <c r="J15">
-        <v>1.017767499770198</v>
+        <v>1.018327137125146</v>
       </c>
       <c r="K15">
-        <v>1.028231464232297</v>
+        <v>1.02856013148487</v>
       </c>
       <c r="L15">
-        <v>1.021784495347677</v>
+        <v>1.022244676747138</v>
       </c>
       <c r="M15">
-        <v>1.031247803755929</v>
+        <v>1.031618652670632</v>
       </c>
       <c r="N15">
-        <v>1.009983268990967</v>
+        <v>1.012566378625974</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034610800770789</v>
+        <v>1.034903915394765</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031107001690572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031355541294895</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020141531320971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9904863013687706</v>
+        <v>0.9909167376916408</v>
       </c>
       <c r="D16">
-        <v>1.015302075652163</v>
+        <v>1.015465552228455</v>
       </c>
       <c r="E16">
-        <v>1.008911972413962</v>
+        <v>1.009256477745614</v>
       </c>
       <c r="F16">
-        <v>1.018489729971561</v>
+        <v>1.018767422162496</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045871845332653</v>
+        <v>1.045954552316042</v>
       </c>
       <c r="J16">
-        <v>1.019004519847589</v>
+        <v>1.019417476270302</v>
       </c>
       <c r="K16">
-        <v>1.029364552574087</v>
+        <v>1.029525200450481</v>
       </c>
       <c r="L16">
-        <v>1.023085950789146</v>
+        <v>1.023424398148377</v>
       </c>
       <c r="M16">
-        <v>1.032497261344528</v>
+        <v>1.032770188002902</v>
       </c>
       <c r="N16">
-        <v>1.010390835856209</v>
+        <v>1.012645462546305</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035559502302521</v>
+        <v>1.035775226542451</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031911327196856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032041365060105</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020339570058823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9918991196021671</v>
+        <v>0.992249392242206</v>
       </c>
       <c r="D17">
-        <v>1.016264094012316</v>
+        <v>1.016335045925449</v>
       </c>
       <c r="E17">
-        <v>1.009915609110021</v>
+        <v>1.010195864178095</v>
       </c>
       <c r="F17">
-        <v>1.019371154706876</v>
+        <v>1.019597132833992</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046189976460949</v>
+        <v>1.046225886500812</v>
       </c>
       <c r="J17">
-        <v>1.019672201950755</v>
+        <v>1.020008708010243</v>
       </c>
       <c r="K17">
-        <v>1.029992840135723</v>
+        <v>1.030062598931618</v>
       </c>
       <c r="L17">
-        <v>1.023751987095987</v>
+        <v>1.024027453864985</v>
       </c>
       <c r="M17">
-        <v>1.033047853432236</v>
+        <v>1.033270062067033</v>
       </c>
       <c r="N17">
-        <v>1.010601108779384</v>
+        <v>1.012699252570317</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035865155800209</v>
+        <v>1.036040809573625</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03235815517315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032424175709989</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020445644886863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9925453780783529</v>
+        <v>0.99286243986037</v>
       </c>
       <c r="D18">
-        <v>1.016694355992743</v>
+        <v>1.016725828768608</v>
       </c>
       <c r="E18">
-        <v>1.010256252104749</v>
+        <v>1.010510418482233</v>
       </c>
       <c r="F18">
-        <v>1.019499137837339</v>
+        <v>1.019704049309441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046308227566332</v>
+        <v>1.046324159977865</v>
       </c>
       <c r="J18">
-        <v>1.019893000644999</v>
+        <v>1.020197834200347</v>
       </c>
       <c r="K18">
-        <v>1.030231013576674</v>
+        <v>1.030261965833035</v>
       </c>
       <c r="L18">
-        <v>1.023900266931503</v>
+        <v>1.024150161569431</v>
       </c>
       <c r="M18">
-        <v>1.032989570191387</v>
+        <v>1.03319111736308</v>
       </c>
       <c r="N18">
-        <v>1.010652975911426</v>
+        <v>1.01269269542047</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035580306274242</v>
+        <v>1.035739660854906</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032514856084479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032552303538051</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020476965971329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.992498809691525</v>
+        <v>0.9928207981806498</v>
       </c>
       <c r="D19">
-        <v>1.016651830278191</v>
+        <v>1.016689370679272</v>
       </c>
       <c r="E19">
-        <v>1.009991592675698</v>
+        <v>1.010250719147721</v>
       </c>
       <c r="F19">
-        <v>1.018933570258266</v>
+        <v>1.019142367087251</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046252559076785</v>
+        <v>1.046271564372592</v>
       </c>
       <c r="J19">
-        <v>1.019711925195176</v>
+        <v>1.020021566673056</v>
       </c>
       <c r="K19">
-        <v>1.030126154951869</v>
+        <v>1.030163077738372</v>
       </c>
       <c r="L19">
-        <v>1.023576428008484</v>
+        <v>1.023831219791857</v>
       </c>
       <c r="M19">
-        <v>1.032370462032006</v>
+        <v>1.032575844221072</v>
       </c>
       <c r="N19">
-        <v>1.010565223782416</v>
+        <v>1.012614677596962</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034763499974965</v>
+        <v>1.034925940373796</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032447144897837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032489438113482</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020442522050546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9905109439693848</v>
+        <v>0.9909413168977541</v>
       </c>
       <c r="D20">
-        <v>1.015272292931259</v>
+        <v>1.015439986394467</v>
       </c>
       <c r="E20">
-        <v>1.008052258434359</v>
+        <v>1.008401046301203</v>
       </c>
       <c r="F20">
-        <v>1.016490635787366</v>
+        <v>1.016771432287617</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045706251915004</v>
+        <v>1.045791118160692</v>
       </c>
       <c r="J20">
-        <v>1.018412617752414</v>
+        <v>1.018825957678978</v>
       </c>
       <c r="K20">
-        <v>1.029051810059181</v>
+        <v>1.02921666879785</v>
       </c>
       <c r="L20">
-        <v>1.021954981054357</v>
+        <v>1.022297764633805</v>
       </c>
       <c r="M20">
-        <v>1.030249585256401</v>
+        <v>1.030525650457826</v>
       </c>
       <c r="N20">
-        <v>1.010087488410812</v>
+        <v>1.012327246987186</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032554047523467</v>
+        <v>1.032772526038665</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03169147654879</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03182461901666</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020221992027364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9858965058010827</v>
+        <v>0.9866322604629586</v>
       </c>
       <c r="D21">
-        <v>1.012117097644614</v>
+        <v>1.012618155028951</v>
       </c>
       <c r="E21">
-        <v>1.004451661119253</v>
+        <v>1.005050229648669</v>
       </c>
       <c r="F21">
-        <v>1.012893401239519</v>
+        <v>1.013374783191975</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044591192247505</v>
+        <v>1.044844486013885</v>
       </c>
       <c r="J21">
-        <v>1.0159959565002</v>
+        <v>1.016699712114996</v>
       </c>
       <c r="K21">
-        <v>1.02687248760949</v>
+        <v>1.027364351982646</v>
       </c>
       <c r="L21">
-        <v>1.019349183387135</v>
+        <v>1.019936551411743</v>
       </c>
       <c r="M21">
-        <v>1.027634553230147</v>
+        <v>1.028107120553848</v>
       </c>
       <c r="N21">
-        <v>1.009275228012857</v>
+        <v>1.012177522276123</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030443214335852</v>
+        <v>1.030817224902687</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030153847262959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030518532493531</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019838417324706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9829618712522888</v>
+        <v>0.9838912092437694</v>
       </c>
       <c r="D22">
-        <v>1.010108831327249</v>
+        <v>1.010821138464555</v>
       </c>
       <c r="E22">
-        <v>1.002190206934922</v>
+        <v>1.002947098508534</v>
       </c>
       <c r="F22">
-        <v>1.010664410559961</v>
+        <v>1.011272941501698</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043868420890311</v>
+        <v>1.044228257331703</v>
       </c>
       <c r="J22">
-        <v>1.014468537599247</v>
+        <v>1.015355084934585</v>
       </c>
       <c r="K22">
-        <v>1.025482655457139</v>
+        <v>1.026181231875761</v>
       </c>
       <c r="L22">
-        <v>1.017718399905017</v>
+        <v>1.018460398009454</v>
       </c>
       <c r="M22">
-        <v>1.026027522946009</v>
+        <v>1.026624338904516</v>
       </c>
       <c r="N22">
-        <v>1.008762752623989</v>
+        <v>1.012077470681402</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02917133837208</v>
+        <v>1.029643685606503</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029157573682666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029667121141989</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019591192310066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9845180142519036</v>
+        <v>0.9853331712474855</v>
       </c>
       <c r="D23">
-        <v>1.011169301047797</v>
+        <v>1.011761333466642</v>
       </c>
       <c r="E23">
-        <v>1.003387942113771</v>
+        <v>1.004051200435166</v>
       </c>
       <c r="F23">
-        <v>1.011845656578688</v>
+        <v>1.012379066817013</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044250359322914</v>
+        <v>1.044549545406699</v>
       </c>
       <c r="J23">
-        <v>1.015276340464757</v>
+        <v>1.016055073692526</v>
       </c>
       <c r="K23">
-        <v>1.026214928701235</v>
+        <v>1.026795841439125</v>
       </c>
       <c r="L23">
-        <v>1.018581317655618</v>
+        <v>1.019231865559662</v>
       </c>
       <c r="M23">
-        <v>1.02687858215865</v>
+        <v>1.02740199048979</v>
       </c>
       <c r="N23">
-        <v>1.009032554735769</v>
+        <v>1.012086547791879</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029844905158089</v>
+        <v>1.030259153879465</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029665629899321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030091039006874</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019718705954557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9905285490770207</v>
+        <v>0.99095812978098</v>
       </c>
       <c r="D24">
-        <v>1.01527544379953</v>
+        <v>1.015441916604715</v>
       </c>
       <c r="E24">
-        <v>1.008032615628154</v>
+        <v>1.008380964816048</v>
       </c>
       <c r="F24">
-        <v>1.016430565755497</v>
+        <v>1.016710987592065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045699611669955</v>
+        <v>1.045783861581361</v>
       </c>
       <c r="J24">
-        <v>1.018396133517812</v>
+        <v>1.018808737350107</v>
       </c>
       <c r="K24">
-        <v>1.029039512751191</v>
+        <v>1.02920317509654</v>
       </c>
       <c r="L24">
-        <v>1.021920122823351</v>
+        <v>1.022262482684329</v>
       </c>
       <c r="M24">
-        <v>1.030175157943898</v>
+        <v>1.030450860136048</v>
       </c>
       <c r="N24">
-        <v>1.010076724545557</v>
+        <v>1.012314895596554</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032453958298342</v>
+        <v>1.032672160536017</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03165522201634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031784847825133</v>
+      </c>
+      <c r="S24">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T24">
+        <v>1.02021593039954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.997261238874605</v>
+        <v>0.997415069103248</v>
       </c>
       <c r="D25">
-        <v>1.019879112122853</v>
+        <v>1.01967708961261</v>
       </c>
       <c r="E25">
-        <v>1.013269104555224</v>
+        <v>1.013395042231861</v>
       </c>
       <c r="F25">
-        <v>1.021611337889281</v>
+        <v>1.021712351886108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04725883149783</v>
+        <v>1.047156413769187</v>
       </c>
       <c r="J25">
-        <v>1.021881126103101</v>
+        <v>1.022029740740951</v>
       </c>
       <c r="K25">
-        <v>1.032176473772862</v>
+        <v>1.031977434734898</v>
       </c>
       <c r="L25">
-        <v>1.025664868589852</v>
+        <v>1.025788916180653</v>
       </c>
       <c r="M25">
-        <v>1.033883179496903</v>
+        <v>1.033982708693946</v>
       </c>
       <c r="N25">
-        <v>1.011243307526617</v>
+        <v>1.013124512449542</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035388635856513</v>
+        <v>1.035467407102179</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033870358367613</v>
+        <v>1.033743218690096</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020784614756031</v>
       </c>
     </row>
   </sheetData>
